--- a/기획/체스/정리 문서/3.시스템 관련 UI 목록-윤정근.xlsx
+++ b/기획/체스/정리 문서/3.시스템 관련 UI 목록-윤정근.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\정리 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60673C63-220E-437C-9642-0A5E5157E9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E615DBD6-B609-40B3-8BC6-B9A945D10086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="766" activeTab="7" xr2:uid="{C76A8D16-058A-4950-AFE4-ABE44D61472A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="766" activeTab="2" xr2:uid="{C76A8D16-058A-4950-AFE4-ABE44D61472A}"/>
   </bookViews>
   <sheets>
     <sheet name="공용" sheetId="15" r:id="rId1"/>
@@ -22,6 +22,16 @@
     <sheet name="덱 편집 시스템" sheetId="23" r:id="rId7"/>
     <sheet name="검색 시스템" sheetId="20" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'검색 시스템'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">공용!$A$1:$D$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'덱 일람 시스템'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'덱 편집 시스템'!$A$1:$E$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'카드 관리 시스템'!$A$1:$E$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'카드 구성 요소'!$A$1:$E$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'카드 일람 시스템'!$A$1:$E$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'카드 티어'!$A$1:$E$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="370">
   <si>
     <t>UI 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1170,6 +1180,267 @@
   <si>
     <t>크기 (1920 × 1080 기준)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>580 × 456</t>
+  </si>
+  <si>
+    <t>372 × 456</t>
+  </si>
+  <si>
+    <t>1168 × 611</t>
+  </si>
+  <si>
+    <t>456 × 420</t>
+  </si>
+  <si>
+    <t>346 × 332</t>
+  </si>
+  <si>
+    <t>1077 × 195</t>
+  </si>
+  <si>
+    <t>346 × 325</t>
+  </si>
+  <si>
+    <t>12 × 54</t>
+  </si>
+  <si>
+    <t>5 × 7</t>
+  </si>
+  <si>
+    <t>5 × 450</t>
+  </si>
+  <si>
+    <t>22 × 22</t>
+  </si>
+  <si>
+    <t>352 × 30</t>
+  </si>
+  <si>
+    <t>106 × 33</t>
+  </si>
+  <si>
+    <t>216 × 38</t>
+  </si>
+  <si>
+    <t>124 × 34</t>
+  </si>
+  <si>
+    <t>70 × 16</t>
+  </si>
+  <si>
+    <t>102 × 30</t>
+  </si>
+  <si>
+    <t>113 × 36</t>
+  </si>
+  <si>
+    <t>202 × 27</t>
+  </si>
+  <si>
+    <t>45 × 45</t>
+  </si>
+  <si>
+    <t>38 × 38</t>
+  </si>
+  <si>
+    <t>38 × 7</t>
+  </si>
+  <si>
+    <t>169 × 45</t>
+  </si>
+  <si>
+    <t>70 × 26</t>
+  </si>
+  <si>
+    <t>32 × 32</t>
+  </si>
+  <si>
+    <t>32 × 30</t>
+  </si>
+  <si>
+    <t>73 × 27</t>
+  </si>
+  <si>
+    <t>77 × 38</t>
+  </si>
+  <si>
+    <t>254 × 32</t>
+  </si>
+  <si>
+    <t>28 × 44</t>
+  </si>
+  <si>
+    <t>145 × 27</t>
+  </si>
+  <si>
+    <t>28 × 19</t>
+  </si>
+  <si>
+    <t>97 × 134</t>
+  </si>
+  <si>
+    <t>118 × 153</t>
+  </si>
+  <si>
+    <t>176 × 150</t>
+  </si>
+  <si>
+    <t>136 × 189</t>
+  </si>
+  <si>
+    <t>133 × 186</t>
+  </si>
+  <si>
+    <t>129 × 181</t>
+  </si>
+  <si>
+    <t>125 × 15</t>
+  </si>
+  <si>
+    <t>125 × 38</t>
+  </si>
+  <si>
+    <t>34 × 16</t>
+  </si>
+  <si>
+    <t>62 × 8</t>
+  </si>
+  <si>
+    <t>128 × 16</t>
+  </si>
+  <si>
+    <t>30 × 16</t>
+  </si>
+  <si>
+    <t>75 × 75</t>
+  </si>
+  <si>
+    <t>54 × 56</t>
+  </si>
+  <si>
+    <t>65 × 75</t>
+  </si>
+  <si>
+    <t>208 × 75</t>
+  </si>
+  <si>
+    <t>72 × 42</t>
+  </si>
+  <si>
+    <t>86 × 16</t>
+  </si>
+  <si>
+    <t>8 × 8</t>
+  </si>
+  <si>
+    <t>80 × 28</t>
+  </si>
+  <si>
+    <t>110 × 110</t>
+  </si>
+  <si>
+    <t>153 × 26</t>
+  </si>
+  <si>
+    <t>106 × 26</t>
+  </si>
+  <si>
+    <t>434 × 278</t>
+  </si>
+  <si>
+    <t>80 × 20</t>
+  </si>
+  <si>
+    <t>228 × 177</t>
+  </si>
+  <si>
+    <t>445 × 206</t>
+  </si>
+  <si>
+    <t>130 × 32</t>
+  </si>
+  <si>
+    <t>156 × 25</t>
+  </si>
+  <si>
+    <t>193 × 39</t>
+  </si>
+  <si>
+    <t>140 × 154</t>
+  </si>
+  <si>
+    <t>53 × 46</t>
+  </si>
+  <si>
+    <t>156 × 115</t>
+  </si>
+  <si>
+    <t>91 × 51</t>
+  </si>
+  <si>
+    <t>151 × 136</t>
+  </si>
+  <si>
+    <t>132 × 28</t>
+  </si>
+  <si>
+    <t>66 × 28</t>
+  </si>
+  <si>
+    <t>91 × 28</t>
+  </si>
+  <si>
+    <t>131 × 28</t>
+  </si>
+  <si>
+    <t>92 × 63</t>
+  </si>
+  <si>
+    <t>209 × 26</t>
+  </si>
+  <si>
+    <t>601 × 108</t>
+  </si>
+  <si>
+    <t>109 × 56</t>
+  </si>
+  <si>
+    <t>83 × 56</t>
+  </si>
+  <si>
+    <t>140 × 26</t>
+  </si>
+  <si>
+    <t>52 × 52</t>
+  </si>
+  <si>
+    <t>158 × 412</t>
+  </si>
+  <si>
+    <t>235 × 412</t>
+  </si>
+  <si>
+    <t>579 × 46</t>
+  </si>
+  <si>
+    <t>35 × 35</t>
+  </si>
+  <si>
+    <t>85 × 33</t>
+  </si>
+  <si>
+    <t>136 × 45</t>
+  </si>
+  <si>
+    <t>29 × 24</t>
+  </si>
+  <si>
+    <t>21 × 21</t>
+  </si>
+  <si>
+    <t>87 × 16</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1271,29 +1542,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,19 +1579,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2759,8 +3025,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2446005" y="1107799"/>
-          <a:ext cx="135270" cy="131425"/>
+          <a:off x="2495585" y="1120124"/>
+          <a:ext cx="137556" cy="132187"/>
           <a:chOff x="940784" y="481860"/>
           <a:chExt cx="3289872" cy="1613929"/>
         </a:xfrm>
@@ -9456,800 +9722,506 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2DD55A-31B7-46DB-84D5-79C86DF3487A}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="11.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13"/>
+    <col min="6" max="6" width="11.25" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="9">
-        <v>580</v>
-      </c>
-      <c r="E2" s="7">
-        <v>456</v>
-      </c>
-      <c r="F2" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(" × ",TRUE,D2,E2)</f>
-        <v>580 × 456</v>
+      <c r="D2" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9">
-        <v>372</v>
-      </c>
-      <c r="E3" s="7">
-        <v>456</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <f t="shared" ref="F3:F43" si="0">_xlfn.TEXTJOIN(" × ",TRUE,D3,E3)</f>
-        <v>372 × 456</v>
+      <c r="D3" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="9">
-        <v>1168</v>
-      </c>
-      <c r="E4" s="7">
-        <v>611</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1168 × 611</v>
+      <c r="D4" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="9">
-        <v>456</v>
-      </c>
-      <c r="E5" s="7">
-        <v>420</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>456 × 420</v>
+      <c r="D5" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="9">
-        <v>346</v>
-      </c>
-      <c r="E6" s="7">
-        <v>332</v>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>346 × 332</v>
+      <c r="D6" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="9">
-        <v>1077</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1077 × 195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="9">
-        <v>346</v>
-      </c>
-      <c r="E8" s="7">
-        <v>325</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>346 × 325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="9">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>12 × 54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="9">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>5 × 7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="9">
-        <v>5</v>
-      </c>
-      <c r="E11" s="7">
-        <v>450</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>5 × 450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9">
-        <v>22</v>
-      </c>
-      <c r="E12" s="7">
-        <v>22</v>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>22 × 22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="9">
-        <v>352</v>
-      </c>
-      <c r="E13" s="7">
-        <v>30</v>
-      </c>
-      <c r="F13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>352 × 30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="9">
-        <v>106</v>
-      </c>
-      <c r="E14" s="7">
-        <v>33</v>
-      </c>
-      <c r="F14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>106 × 33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="D34" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E15" s="7">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>216 × 38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="9">
-        <v>124</v>
-      </c>
-      <c r="E16" s="7">
-        <v>34</v>
-      </c>
-      <c r="F16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>124 × 34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="9">
-        <v>22</v>
-      </c>
-      <c r="E17" s="7">
-        <v>22</v>
-      </c>
-      <c r="F17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>22 × 22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" s="9">
-        <v>22</v>
-      </c>
-      <c r="E18" s="7">
-        <v>22</v>
-      </c>
-      <c r="F18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>22 × 22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="9">
-        <v>22</v>
-      </c>
-      <c r="E19" s="7">
-        <v>22</v>
-      </c>
-      <c r="F19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>22 × 22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="9">
-        <v>70</v>
-      </c>
-      <c r="E20" s="7">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>70 × 16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="9">
-        <v>102</v>
-      </c>
-      <c r="E21" s="7">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>102 × 30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="9">
-        <v>102</v>
-      </c>
-      <c r="E22" s="7">
-        <v>30</v>
-      </c>
-      <c r="F22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>102 × 30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="9">
-        <v>113</v>
-      </c>
-      <c r="E23" s="7">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>113 × 36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="9">
-        <v>202</v>
-      </c>
-      <c r="E24" s="7">
-        <v>27</v>
-      </c>
-      <c r="F24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>202 × 27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="9">
-        <v>45</v>
-      </c>
-      <c r="E25" s="7">
-        <v>45</v>
-      </c>
-      <c r="F25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>45 × 45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="9">
-        <v>38</v>
-      </c>
-      <c r="E26" s="7">
-        <v>38</v>
-      </c>
-      <c r="F26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>38 × 38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="9">
-        <v>38</v>
-      </c>
-      <c r="E27" s="7">
-        <v>7</v>
-      </c>
-      <c r="F27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>38 × 7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="9">
-        <v>169</v>
-      </c>
-      <c r="E28" s="7">
-        <v>45</v>
-      </c>
-      <c r="F28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>169 × 45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="9">
-        <v>70</v>
-      </c>
-      <c r="E29" s="7">
-        <v>26</v>
-      </c>
-      <c r="F29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>70 × 26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="9">
-        <v>70</v>
-      </c>
-      <c r="E30" s="7">
-        <v>26</v>
-      </c>
-      <c r="F30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>70 × 26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="9">
-        <v>32</v>
-      </c>
-      <c r="E31" s="7">
-        <v>32</v>
-      </c>
-      <c r="F31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>32 × 32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="9">
-        <v>32</v>
-      </c>
-      <c r="E32" s="7">
-        <v>30</v>
-      </c>
-      <c r="F32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>32 × 30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="9">
-        <v>73</v>
-      </c>
-      <c r="E33" s="7">
-        <v>27</v>
-      </c>
-      <c r="F33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>73 × 27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="9">
-        <v>77</v>
-      </c>
-      <c r="E34" s="7">
-        <v>38</v>
-      </c>
-      <c r="F34" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>77 × 38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="9">
-        <v>254</v>
-      </c>
-      <c r="E35" s="7">
-        <v>32</v>
-      </c>
-      <c r="F35" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>254 × 32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D36" s="9">
-        <v>28</v>
-      </c>
-      <c r="E36" s="7">
-        <v>44</v>
-      </c>
-      <c r="F36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>28 × 44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="D36" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="9">
-        <v>22</v>
-      </c>
-      <c r="E37" s="7">
-        <v>22</v>
-      </c>
-      <c r="F37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>22 × 22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="D37" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D38" s="9">
-        <v>145</v>
-      </c>
-      <c r="E38" s="7">
-        <v>27</v>
-      </c>
-      <c r="F38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>145 × 27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="D38" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D39" s="9">
-        <v>145</v>
-      </c>
-      <c r="E39" s="7">
-        <v>27</v>
-      </c>
-      <c r="F39" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>145 × 27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="D39" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D40" s="9">
-        <v>28</v>
-      </c>
-      <c r="E40" s="7">
-        <v>19</v>
-      </c>
-      <c r="F40" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>28 × 19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="D40" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="9">
-        <v>97</v>
-      </c>
-      <c r="E41" s="7">
-        <v>134</v>
-      </c>
-      <c r="F41" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>97 × 134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="D41" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="9">
-        <v>118</v>
-      </c>
-      <c r="E42" s="7">
-        <v>153</v>
-      </c>
-      <c r="F42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>118 × 153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="D42" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D43" s="9">
-        <v>176</v>
-      </c>
-      <c r="E43" s="7">
-        <v>150</v>
-      </c>
-      <c r="F43" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>176 × 150</v>
+      <c r="D43" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10258,477 +10230,357 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C063CB-21C3-4956-93CA-EFF62E1939FB}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="10.25" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9">
-        <v>136</v>
-      </c>
-      <c r="F2" s="7">
-        <v>189</v>
-      </c>
-      <c r="G2" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(" × ",TRUE,E2,F2)</f>
-        <v>136 × 189</v>
-      </c>
+      <c r="E2" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9">
-        <v>133</v>
-      </c>
-      <c r="F3" s="7">
-        <v>186</v>
-      </c>
-      <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G21" si="0">_xlfn.TEXTJOIN(" × ",TRUE,E3,F3)</f>
-        <v>133 × 186</v>
-      </c>
+      <c r="E3" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9">
-        <v>129</v>
-      </c>
-      <c r="F4" s="7">
-        <v>181</v>
-      </c>
-      <c r="G4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>129 × 181</v>
-      </c>
+      <c r="E4" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9">
-        <v>125</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>125 × 15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9">
-        <v>125</v>
-      </c>
-      <c r="F6" s="7">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>125 × 15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
-        <v>125</v>
-      </c>
-      <c r="F7" s="7">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>125 × 38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9">
-        <v>34</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E15" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>34 × 16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="E16" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="7">
-        <v>8</v>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>62 × 8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="9">
-        <v>128</v>
-      </c>
-      <c r="F10" s="7">
-        <v>16</v>
-      </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>128 × 16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="9">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7">
-        <v>16</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>30 × 16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="9">
-        <v>75</v>
-      </c>
-      <c r="F12" s="7">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>75 × 75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="9">
-        <v>75</v>
-      </c>
-      <c r="F13" s="7">
-        <v>75</v>
-      </c>
-      <c r="G13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>75 × 75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="9">
-        <v>75</v>
-      </c>
-      <c r="F14" s="7">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>75 × 75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="9">
-        <v>75</v>
-      </c>
-      <c r="F15" s="7">
-        <v>75</v>
-      </c>
-      <c r="G15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>75 × 75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="9">
-        <v>54</v>
-      </c>
-      <c r="F16" s="7">
-        <v>56</v>
-      </c>
-      <c r="G16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>54 × 56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="9">
-        <v>54</v>
-      </c>
-      <c r="F17" s="7">
-        <v>56</v>
-      </c>
-      <c r="G17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>54 × 56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="9">
-        <v>54</v>
-      </c>
-      <c r="F18" s="7">
-        <v>56</v>
-      </c>
-      <c r="G18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>54 × 56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="9">
-        <v>54</v>
-      </c>
-      <c r="F19" s="7">
-        <v>56</v>
-      </c>
-      <c r="G19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>54 × 56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="9">
-        <v>54</v>
-      </c>
-      <c r="F20" s="7">
-        <v>56</v>
-      </c>
-      <c r="G20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>54 × 56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="9">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>54 × 56</v>
-      </c>
+      <c r="E21" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10737,299 +10589,228 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDC9FD6-108B-412F-BE98-612152426B19}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="9.125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="7">
-        <v>75</v>
-      </c>
-      <c r="G2" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(" × ",TRUE,E2,F2)</f>
-        <v>65 × 75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="9">
-        <v>65</v>
-      </c>
-      <c r="F3" s="7">
-        <v>75</v>
-      </c>
-      <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G13" si="0">_xlfn.TEXTJOIN(" × ",TRUE,E3,F3)</f>
-        <v>65 × 75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="9">
-        <v>65</v>
-      </c>
-      <c r="F4" s="7">
-        <v>75</v>
-      </c>
-      <c r="G4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>65 × 75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="9">
-        <v>65</v>
-      </c>
-      <c r="F5" s="7">
-        <v>75</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>65 × 75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="9">
-        <v>65</v>
-      </c>
-      <c r="F6" s="7">
-        <v>75</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>65 × 75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="9">
-        <v>65</v>
-      </c>
-      <c r="F7" s="7">
-        <v>75</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>65 × 75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="9">
-        <v>208</v>
-      </c>
-      <c r="F8" s="7">
-        <v>75</v>
-      </c>
-      <c r="G8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>208 × 75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="9">
-        <v>208</v>
-      </c>
-      <c r="F9" s="7">
-        <v>75</v>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>208 × 75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="B11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="9">
-        <v>208</v>
-      </c>
-      <c r="F10" s="7">
-        <v>75</v>
-      </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>208 × 75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="B12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="9">
-        <v>208</v>
-      </c>
-      <c r="F11" s="7">
-        <v>75</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>208 × 75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="9">
-        <v>208</v>
-      </c>
-      <c r="F12" s="7">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>208 × 75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="9">
-        <v>208</v>
-      </c>
-      <c r="F13" s="7">
-        <v>75</v>
-      </c>
-      <c r="G13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>208 × 75</v>
-      </c>
+      <c r="E13" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11037,362 +10818,273 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA4C1BE-BCCA-49E1-8902-E55DFCFCB495}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="10.125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9">
-        <v>72</v>
-      </c>
-      <c r="F2" s="7">
-        <v>42</v>
-      </c>
-      <c r="G2" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(" × ",TRUE,E2,F2)</f>
-        <v>72 × 42</v>
-      </c>
+      <c r="E2" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="9">
-        <v>72</v>
-      </c>
-      <c r="F3" s="7">
-        <v>42</v>
-      </c>
-      <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G16" si="0">_xlfn.TEXTJOIN(" × ",TRUE,E3,F3)</f>
-        <v>72 × 42</v>
-      </c>
+      <c r="E3" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="9">
-        <v>72</v>
-      </c>
-      <c r="F4" s="7">
-        <v>42</v>
-      </c>
-      <c r="G4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>72 × 42</v>
-      </c>
+      <c r="E4" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="9">
-        <v>72</v>
-      </c>
-      <c r="F5" s="7">
-        <v>42</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>72 × 42</v>
-      </c>
+      <c r="E5" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="9">
-        <v>86</v>
-      </c>
-      <c r="F6" s="7">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>86 × 16</v>
-      </c>
+      <c r="E6" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="9">
-        <v>86</v>
-      </c>
-      <c r="F7" s="7">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>86 × 16</v>
-      </c>
+      <c r="E7" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="9">
-        <v>8</v>
-      </c>
-      <c r="F8" s="7">
-        <v>8</v>
-      </c>
-      <c r="G8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>8 × 8</v>
-      </c>
+      <c r="E8" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="9">
-        <v>86</v>
-      </c>
-      <c r="F9" s="7">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>86 × 16</v>
-      </c>
+      <c r="E9" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="9">
-        <v>80</v>
-      </c>
-      <c r="F10" s="7">
-        <v>28</v>
-      </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>80 × 28</v>
-      </c>
+      <c r="E10" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="9">
-        <v>80</v>
-      </c>
-      <c r="F11" s="7">
-        <v>28</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>80 × 28</v>
-      </c>
+      <c r="E11" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="9">
-        <v>110</v>
-      </c>
-      <c r="F12" s="7">
-        <v>110</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>110 × 110</v>
-      </c>
+      <c r="E12" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="9">
-        <v>110</v>
-      </c>
-      <c r="F13" s="7">
-        <v>110</v>
-      </c>
-      <c r="G13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>110 × 110</v>
-      </c>
+      <c r="E13" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="9">
-        <v>110</v>
-      </c>
-      <c r="F14" s="7">
-        <v>110</v>
-      </c>
-      <c r="G14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>110 × 110</v>
-      </c>
+      <c r="E14" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="9">
-        <v>153</v>
-      </c>
-      <c r="F15" s="7">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>153 × 26</v>
-      </c>
+      <c r="E15" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="9">
-        <v>106</v>
-      </c>
-      <c r="F16" s="7">
-        <v>26</v>
-      </c>
-      <c r="G16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>106 × 26</v>
-      </c>
+      <c r="E16" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G16" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11400,278 +11092,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AF7AC3-A575-4A87-BBA2-1998AB3ED1F4}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="10.125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="9">
-        <v>434</v>
-      </c>
-      <c r="F2" s="7">
-        <v>278</v>
-      </c>
-      <c r="G2" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(" × ",TRUE,E2,F2)</f>
-        <v>434 × 278</v>
-      </c>
+      <c r="E2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="9">
-        <v>80</v>
-      </c>
-      <c r="F3" s="7">
-        <v>20</v>
-      </c>
-      <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G12" si="0">_xlfn.TEXTJOIN(" × ",TRUE,E3,F3)</f>
-        <v>80 × 20</v>
-      </c>
+      <c r="E3" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="9">
-        <v>80</v>
-      </c>
-      <c r="F4" s="7">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>80 × 20</v>
-      </c>
+      <c r="E4" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="9">
-        <v>169</v>
-      </c>
-      <c r="F5" s="7">
-        <v>45</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>169 × 45</v>
-      </c>
+      <c r="E5" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="9">
-        <v>228</v>
-      </c>
-      <c r="F6" s="7">
-        <v>177</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>228 × 177</v>
-      </c>
+      <c r="E6" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="9">
-        <v>445</v>
-      </c>
-      <c r="F7" s="7">
-        <v>206</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>445 × 206</v>
-      </c>
+      <c r="E7" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="9">
-        <v>130</v>
-      </c>
-      <c r="F8" s="7">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>130 × 32</v>
-      </c>
+      <c r="E8" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="9">
-        <v>156</v>
-      </c>
-      <c r="F9" s="7">
-        <v>25</v>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>156 × 25</v>
-      </c>
+      <c r="E9" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="9">
-        <v>156</v>
-      </c>
-      <c r="F10" s="7">
-        <v>25</v>
-      </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>156 × 25</v>
-      </c>
+      <c r="E10" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="9">
-        <v>193</v>
-      </c>
-      <c r="F11" s="7">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>193 × 39</v>
-      </c>
+      <c r="E11" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="9">
-        <v>193</v>
-      </c>
-      <c r="F12" s="7">
-        <v>39</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>193 × 39</v>
-      </c>
+      <c r="E12" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11679,194 +11306,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2498DE4-2050-420A-9661-FDA52C236690}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="10.125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="9">
-        <v>140</v>
-      </c>
-      <c r="F2" s="7">
-        <v>154</v>
-      </c>
-      <c r="G2" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(" × ",TRUE,E2,F2)</f>
-        <v>140 × 154</v>
-      </c>
+      <c r="E2" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="9">
-        <v>140</v>
-      </c>
-      <c r="F3" s="7">
-        <v>154</v>
-      </c>
-      <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G8" si="0">_xlfn.TEXTJOIN(" × ",TRUE,E3,F3)</f>
-        <v>140 × 154</v>
-      </c>
+      <c r="E3" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="9">
-        <v>53</v>
-      </c>
-      <c r="F4" s="7">
-        <v>46</v>
-      </c>
-      <c r="G4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>53 × 46</v>
-      </c>
+      <c r="E4" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="9">
-        <v>53</v>
-      </c>
-      <c r="F5" s="7">
-        <v>46</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>53 × 46</v>
-      </c>
+      <c r="E5" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="9">
-        <v>156</v>
-      </c>
-      <c r="F6" s="7">
-        <v>115</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>156 × 115</v>
-      </c>
+      <c r="E6" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="9">
-        <v>91</v>
-      </c>
-      <c r="F7" s="7">
-        <v>51</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>91 × 51</v>
-      </c>
+      <c r="E7" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="9">
-        <v>151</v>
-      </c>
-      <c r="F8" s="7">
-        <v>136</v>
-      </c>
-      <c r="G8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>151 × 136</v>
-      </c>
+      <c r="E8" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11874,404 +11460,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA236CB-F392-4D03-B1C6-9D75748B3056}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="10.125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="9">
-        <v>132</v>
-      </c>
-      <c r="F2" s="7">
-        <v>28</v>
-      </c>
-      <c r="G2" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(" × ",TRUE,E2,F2)</f>
-        <v>132 × 28</v>
-      </c>
+      <c r="E2" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="9">
-        <v>66</v>
-      </c>
-      <c r="F3" s="7">
-        <v>28</v>
-      </c>
-      <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G18" si="0">_xlfn.TEXTJOIN(" × ",TRUE,E3,F3)</f>
-        <v>66 × 28</v>
-      </c>
+      <c r="E3" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="9">
-        <v>91</v>
-      </c>
-      <c r="F4" s="7">
-        <v>28</v>
-      </c>
-      <c r="G4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>91 × 28</v>
-      </c>
+      <c r="E4" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="9">
-        <v>131</v>
-      </c>
-      <c r="F5" s="7">
-        <v>28</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>131 × 28</v>
-      </c>
+      <c r="E5" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="9">
-        <v>92</v>
-      </c>
-      <c r="F6" s="7">
-        <v>63</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>92 × 63</v>
-      </c>
+      <c r="E6" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="9">
-        <v>91</v>
-      </c>
-      <c r="F7" s="7">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>91 × 28</v>
-      </c>
+      <c r="E7" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="9">
-        <v>209</v>
-      </c>
-      <c r="F8" s="7">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>209 × 26</v>
-      </c>
+      <c r="E8" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="9">
-        <v>601</v>
-      </c>
-      <c r="F9" s="7">
-        <v>108</v>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>601 × 108</v>
-      </c>
+      <c r="E9" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="9">
-        <v>54</v>
-      </c>
-      <c r="F10" s="7">
-        <v>56</v>
-      </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>54 × 56</v>
-      </c>
+      <c r="E10" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="9">
-        <v>54</v>
-      </c>
-      <c r="F11" s="7">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>54 × 56</v>
-      </c>
+      <c r="E11" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E12" s="9">
-        <v>109</v>
-      </c>
-      <c r="F12" s="7">
-        <v>56</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>109 × 56</v>
-      </c>
+      <c r="E12" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E13" s="9">
-        <v>83</v>
-      </c>
-      <c r="F13" s="7">
-        <v>56</v>
-      </c>
-      <c r="G13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>83 × 56</v>
-      </c>
+      <c r="E13" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="9">
-        <v>140</v>
-      </c>
-      <c r="F14" s="7">
-        <v>26</v>
-      </c>
-      <c r="G14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>140 × 26</v>
-      </c>
+      <c r="E14" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="9">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>52 × 52</v>
-      </c>
+      <c r="E15" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="9">
-        <v>32</v>
-      </c>
-      <c r="F16" s="7">
-        <v>32</v>
-      </c>
-      <c r="G16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>32 × 32</v>
-      </c>
+      <c r="E16" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E17" s="9">
-        <v>158</v>
-      </c>
-      <c r="F17" s="7">
-        <v>412</v>
-      </c>
-      <c r="G17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>158 × 412</v>
-      </c>
+      <c r="E17" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E18" s="9">
-        <v>235</v>
-      </c>
-      <c r="F18" s="7">
-        <v>412</v>
-      </c>
-      <c r="G18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>235 × 412</v>
-      </c>
+      <c r="E18" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G18" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12279,193 +11764,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42F1E59-ADA7-4A2D-AF8D-4B3FA07A9298}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="9.125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="9">
-        <v>579</v>
-      </c>
-      <c r="F2" s="7">
-        <v>46</v>
-      </c>
-      <c r="G2" s="7" t="str">
-        <f>_xlfn.TEXTJOIN(" × ",TRUE,E2,F2)</f>
-        <v>579 × 46</v>
-      </c>
+      <c r="E2" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="9">
-        <v>35</v>
-      </c>
-      <c r="F3" s="7">
-        <v>35</v>
-      </c>
-      <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G8" si="0">_xlfn.TEXTJOIN(" × ",TRUE,E3,F3)</f>
-        <v>35 × 35</v>
-      </c>
+      <c r="E3" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="7">
-        <v>33</v>
-      </c>
-      <c r="G4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>85 × 33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="9">
-        <v>136</v>
-      </c>
-      <c r="F5" s="7">
-        <v>45</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>136 × 45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9">
-        <v>29</v>
-      </c>
-      <c r="F6" s="7">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>29 × 24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="9">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>21 × 21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="9">
-        <v>87</v>
-      </c>
-      <c r="F8" s="7">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>87 × 16</v>
-      </c>
+      <c r="E8" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>